--- a/biology/Botanique/Tricalysia_pedunculosa/Tricalysia_pedunculosa.xlsx
+++ b/biology/Botanique/Tricalysia_pedunculosa/Tricalysia_pedunculosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricalysia pedunculosa (N.Hallé) Robbr. est une espèce d'arbrisseaux de la famille des Rubiacées et du genre Tricalysia[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricalysia pedunculosa (N.Hallé) Robbr. est une espèce d'arbrisseaux de la famille des Rubiacées et du genre Tricalysia.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (5 décembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (5 décembre 2017) :
 variété Tricalysia pedunculosa var. pedunculosa
 variété Tricalysia pedunculosa var. pilosula
 variété Tricalysia pedunculosa var. walkeriana
-Selon The Plant List            (5 décembre 2017)[1] :
+Selon The Plant List            (5 décembre 2017) :
 variété Tricalysia pedunculosa var. pilosula (N.Hallé) Robbr.
 variété Tricalysia pedunculosa var. walkeriana (N.Hallé) Robbr.
-Selon Tropicos                                           (5 décembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Tricalysia pedunculosa var. pedunculosa
 variété Tricalysia pedunculosa var. pilosula (N. Hallé) Robbr.
 variété Tricalysia pedunculosa var. walkeriana (N. Hallé) Robbr.</t>
@@ -551,9 +565,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce pedunculosa est présente au Gabon, plus rarement au Cameroun, où elle a été observée dans la Région du Sud (Kribi, Lolodorf, Grand Batanga[2]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce pedunculosa est présente au Gabon, plus rarement au Cameroun, où elle a été observée dans la Région du Sud (Kribi, Lolodorf, Grand Batanga).
 </t>
         </is>
       </c>
